--- a/floridaCityCoordinates.xlsx
+++ b/floridaCityCoordinates.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://powerbininjas.sharepoint.com/sites/PowerBINinjas/Power BI Ninjas/Demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\power\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{473A0CBE-6048-481E-818B-EF403620445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC2BD2CA-B92A-4D5B-B818-667DAB4BCAB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC3BFF-181C-4D11-B6CA-FED49F05E823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="26685" windowHeight="16170" xr2:uid="{07B00241-EE9F-4297-A375-71F85BA3967F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27630" windowHeight="16440" xr2:uid="{07B00241-EE9F-4297-A375-71F85BA3967F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$920</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="919">
   <si>
     <t>Latitude</t>
   </si>
@@ -3318,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B702379D-CC69-4C4E-8EC9-9602D79776F5}">
-  <dimension ref="A1:C921"/>
+  <dimension ref="A1:C920"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13122,353 +13125,358 @@
       </c>
     </row>
     <row r="891" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A891" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="B891" s="2">
-        <v>30.88</v>
-      </c>
-      <c r="C891" s="9">
-        <v>-87.06</v>
+      <c r="A891" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B891" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="C891" s="7">
+        <v>-82</v>
       </c>
     </row>
     <row r="892" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A892" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="B892" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="C892" s="7">
-        <v>-82</v>
+      <c r="A892" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="B892" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="C892" s="9">
+        <v>-81.45</v>
       </c>
     </row>
     <row r="893" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A893" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="B893" s="2">
-        <v>28.4</v>
-      </c>
-      <c r="C893" s="9">
-        <v>-81.45</v>
+      <c r="A893" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B893" s="1">
+        <v>29.37</v>
+      </c>
+      <c r="C893" s="7">
+        <v>-82.46</v>
       </c>
     </row>
     <row r="894" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A894" s="6" t="s">
-        <v>890</v>
-      </c>
-      <c r="B894" s="1">
-        <v>29.37</v>
-      </c>
-      <c r="C894" s="7">
-        <v>-82.46</v>
+      <c r="A894" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="B894" s="2">
+        <v>29.33</v>
+      </c>
+      <c r="C894" s="9">
+        <v>-82.54</v>
       </c>
     </row>
     <row r="895" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A895" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="B895" s="2">
-        <v>29.33</v>
-      </c>
-      <c r="C895" s="9">
-        <v>-82.54</v>
+      <c r="A895" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B895" s="1">
+        <v>27.92</v>
+      </c>
+      <c r="C895" s="7">
+        <v>-82.02</v>
       </c>
     </row>
     <row r="896" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A896" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="B896" s="1">
-        <v>27.92</v>
-      </c>
-      <c r="C896" s="7">
-        <v>-82.02</v>
+      <c r="A896" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="B896" s="2">
+        <v>26.16</v>
+      </c>
+      <c r="C896" s="9">
+        <v>-80.14</v>
       </c>
     </row>
     <row r="897" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A897" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="B897" s="2">
-        <v>26.16</v>
-      </c>
-      <c r="C897" s="9">
-        <v>-80.14</v>
+      <c r="A897" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B897" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="C897" s="7">
+        <v>-82.3</v>
       </c>
     </row>
     <row r="898" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A898" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="B898" s="1">
+      <c r="A898" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="B898" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="C898" s="9">
+        <v>-81.540000000000006</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A899" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B899" s="1">
+        <v>27.79</v>
+      </c>
+      <c r="C899" s="7">
+        <v>-80.41</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A900" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="B900" s="2">
+        <v>27.71</v>
+      </c>
+      <c r="C900" s="9">
+        <v>-80.430000000000007</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A901" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="B901" s="1">
+        <v>28.54</v>
+      </c>
+      <c r="C901" s="7">
+        <v>-81.59</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A902" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="B902" s="2">
+        <v>28.01</v>
+      </c>
+      <c r="C902" s="9">
+        <v>-81.7</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A903" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B903" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="C903" s="7">
+        <v>-81.34</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A904" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="B904" s="2">
+        <v>28.69</v>
+      </c>
+      <c r="C904" s="9">
+        <v>-81.27</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A905" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B905" s="1">
+        <v>28.54</v>
+      </c>
+      <c r="C905" s="7">
+        <v>-82.47</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A906" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="B906" s="2">
+        <v>30.39</v>
+      </c>
+      <c r="C906" s="9">
+        <v>-86.99</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A907" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="B907" s="1">
+        <v>30.31</v>
+      </c>
+      <c r="C907" s="7">
+        <v>-84.26</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A908" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="B908" s="2">
+        <v>29.97</v>
+      </c>
+      <c r="C908" s="9">
+        <v>-81.489999999999995</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A909" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B909" s="1">
+        <v>29.93</v>
+      </c>
+      <c r="C909" s="7">
+        <v>-82.42</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A910" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B910" s="2">
+        <v>30.44</v>
+      </c>
+      <c r="C910" s="9">
+        <v>-86.64</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A911" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B911" s="1">
+        <v>28.75</v>
+      </c>
+      <c r="C911" s="7">
+        <v>-81.819999999999993</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A912" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="B912" s="2">
+        <v>29.03</v>
+      </c>
+      <c r="C912" s="9">
+        <v>-82.76</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A913" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B913" s="1">
         <v>27.7</v>
       </c>
-      <c r="C898" s="7">
-        <v>-82.3</v>
-      </c>
-    </row>
-    <row r="899" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A899" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="B899" s="2">
-        <v>28.5</v>
-      </c>
-      <c r="C899" s="9">
-        <v>-81.540000000000006</v>
-      </c>
-    </row>
-    <row r="900" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A900" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="B900" s="1">
-        <v>27.79</v>
-      </c>
-      <c r="C900" s="7">
-        <v>-80.41</v>
-      </c>
-    </row>
-    <row r="901" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A901" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="B901" s="2">
-        <v>27.71</v>
-      </c>
-      <c r="C901" s="9">
-        <v>-80.430000000000007</v>
-      </c>
-    </row>
-    <row r="902" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A902" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="B902" s="1">
-        <v>28.54</v>
-      </c>
-      <c r="C902" s="7">
+      <c r="C913" s="7">
+        <v>-80.89</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A914" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B914" s="2">
+        <v>30.64</v>
+      </c>
+      <c r="C914" s="9">
+        <v>-81.569999999999993</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A915" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B915" s="1">
+        <v>28.73</v>
+      </c>
+      <c r="C915" s="7">
         <v>-81.59</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A903" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="B903" s="2">
-        <v>28.01</v>
-      </c>
-      <c r="C903" s="9">
-        <v>-81.7</v>
-      </c>
-    </row>
-    <row r="904" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="B904" s="1">
-        <v>28.6</v>
-      </c>
-      <c r="C904" s="7">
-        <v>-81.34</v>
-      </c>
-    </row>
-    <row r="905" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A905" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="B905" s="2">
-        <v>28.69</v>
-      </c>
-      <c r="C905" s="9">
-        <v>-81.27</v>
-      </c>
-    </row>
-    <row r="906" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A906" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="B906" s="1">
-        <v>28.54</v>
-      </c>
-      <c r="C906" s="7">
-        <v>-82.47</v>
-      </c>
-    </row>
-    <row r="907" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A907" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="B907" s="2">
-        <v>30.39</v>
-      </c>
-      <c r="C907" s="9">
-        <v>-86.99</v>
-      </c>
-    </row>
-    <row r="908" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A908" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="B908" s="1">
-        <v>30.31</v>
-      </c>
-      <c r="C908" s="7">
-        <v>-84.26</v>
-      </c>
-    </row>
-    <row r="909" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A909" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="B909" s="2">
-        <v>29.97</v>
-      </c>
-      <c r="C909" s="9">
-        <v>-81.489999999999995</v>
-      </c>
-    </row>
-    <row r="910" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A910" s="6" t="s">
-        <v>906</v>
-      </c>
-      <c r="B910" s="1">
-        <v>29.93</v>
-      </c>
-      <c r="C910" s="7">
-        <v>-82.42</v>
-      </c>
-    </row>
-    <row r="911" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A911" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="B911" s="2">
-        <v>30.44</v>
-      </c>
-      <c r="C911" s="9">
-        <v>-86.64</v>
-      </c>
-    </row>
-    <row r="912" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A912" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="B912" s="1">
-        <v>28.75</v>
-      </c>
-      <c r="C912" s="7">
-        <v>-81.819999999999993</v>
-      </c>
-    </row>
-    <row r="913" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A913" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="B913" s="2">
-        <v>29.03</v>
-      </c>
-      <c r="C913" s="9">
-        <v>-82.76</v>
-      </c>
-    </row>
-    <row r="914" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A914" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="B914" s="1">
-        <v>27.7</v>
-      </c>
-      <c r="C914" s="7">
-        <v>-80.89</v>
-      </c>
-    </row>
-    <row r="915" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A915" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="B915" s="2">
-        <v>30.64</v>
-      </c>
-      <c r="C915" s="9">
-        <v>-81.569999999999993</v>
-      </c>
-    </row>
     <row r="916" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A916" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="B916" s="1">
-        <v>28.73</v>
-      </c>
-      <c r="C916" s="7">
-        <v>-81.59</v>
+      <c r="A916" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="B916" s="2">
+        <v>28.24</v>
+      </c>
+      <c r="C916" s="9">
+        <v>-82.18</v>
       </c>
     </row>
     <row r="917" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A917" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="B917" s="2">
-        <v>28.24</v>
-      </c>
-      <c r="C917" s="9">
-        <v>-82.18</v>
+      <c r="A917" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="B917" s="1">
+        <v>28.25</v>
+      </c>
+      <c r="C917" s="7">
+        <v>-82.17</v>
       </c>
     </row>
     <row r="918" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A918" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="B918" s="1">
-        <v>28.25</v>
-      </c>
-      <c r="C918" s="7">
-        <v>-82.17</v>
+      <c r="A918" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="B918" s="2">
+        <v>28.21</v>
+      </c>
+      <c r="C918" s="9">
+        <v>-82.19</v>
       </c>
     </row>
     <row r="919" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A919" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="B919" s="2">
-        <v>28.21</v>
-      </c>
-      <c r="C919" s="9">
-        <v>-82.19</v>
+      <c r="A919" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="B919" s="1">
+        <v>28.23</v>
+      </c>
+      <c r="C919" s="7">
+        <v>-82.21</v>
       </c>
     </row>
     <row r="920" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A920" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="B920" s="1">
-        <v>28.23</v>
-      </c>
-      <c r="C920" s="7">
-        <v>-82.21</v>
-      </c>
-    </row>
-    <row r="921" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A921" s="10" t="s">
+      <c r="A920" s="10" t="s">
         <v>917</v>
       </c>
-      <c r="B921" s="11">
+      <c r="B920" s="11">
         <v>27.49</v>
       </c>
-      <c r="C921" s="12">
+      <c r="C920" s="12">
         <v>-81.790000000000006</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C920" xr:uid="{B702379D-CC69-4C4E-8EC9-9602D79776F5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100848A8B3B7BB8344683D534E7E0E552F3" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="01d02ac879eb588b2614cded4b3fcf18">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="496433c9-de19-4310-b6b5-aaafaedf1164" xmlns:ns3="4d7aae99-c322-4669-a5c5-14a452d17d30" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5d4ee4ed1b57d68bed416d3fa9e65d2" ns2:_="" ns3:_="">
     <xsd:import namespace="496433c9-de19-4310-b6b5-aaafaedf1164"/>
@@ -13679,22 +13687,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40D6A62-534E-47C5-B1AA-3FC2203C06FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="496433c9-de19-4310-b6b5-aaafaedf1164"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4d7aae99-c322-4669-a5c5-14a452d17d30"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9962CE0A-E6B7-435D-AD6E-7FCE0CD13CE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB3D8F2B-1883-4E79-91BD-B8E422BD3DCA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13711,29 +13729,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9962CE0A-E6B7-435D-AD6E-7FCE0CD13CE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A40D6A62-534E-47C5-B1AA-3FC2203C06FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="496433c9-de19-4310-b6b5-aaafaedf1164"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4d7aae99-c322-4669-a5c5-14a452d17d30"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/floridaCityCoordinates.xlsx
+++ b/floridaCityCoordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\power\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F29C1F-6AE8-40EB-8594-63AF29911C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD557090-CAC3-41FF-824D-DB031E4FCF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27630" windowHeight="16440" xr2:uid="{07B00241-EE9F-4297-A375-71F85BA3967F}"/>
   </bookViews>
